--- a/image/example1.xlsx
+++ b/image/example1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmei560/Dropbox/blog/blog/image/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DB9B3F-8A8B-9A4F-8856-22B07E84B62B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A4935-5C8F-024A-9520-50F10A4B0CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{D0734BA7-B128-904C-A833-FE3AA93A0269}"/>
+    <workbookView xWindow="5780" yWindow="2260" windowWidth="27640" windowHeight="16940" xr2:uid="{D0734BA7-B128-904C-A833-FE3AA93A0269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>月收入无变化 （没有在二月份发放科研奖励）</t>
   </si>
   <si>
-    <t>月收入有变化 （在二月份发放科研奖励，3万元）</t>
-  </si>
-  <si>
     <t>个人所得税无变化</t>
   </si>
   <si>
     <t>个人所得税减少；说明累积更合适</t>
+  </si>
+  <si>
+    <t>月收入有变化 （在二月份发放奖励，3万元）</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -680,12 +680,12 @@
         <v>19080</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -913,7 +913,7 @@
         <v>25080</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
